--- a/litreview-exceltab/litreview-mw-developing-country.xlsx
+++ b/litreview-exceltab/litreview-mw-developing-country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\readingSummary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\readingSummary\litreview-exceltab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90AD38-03CC-46DD-B097-B43BFB3D6DBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB2159D-B04B-48AD-9297-561066FD761C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{754DA184-F981-4C86-993D-5EBC7F3953C2}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12456" xr2:uid="{754DA184-F981-4C86-993D-5EBC7F3953C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,33 +31,7 @@
     <author>81804</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BDF4D96C-A050-4284-93E1-B21D946B076C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>81804:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Have I read this paper?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{1F16C5E6-021D-4445-8330-D812A39A3D5B}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1F16C5E6-021D-4445-8330-D812A39A3D5B}">
       <text>
         <r>
           <rPr>
@@ -152,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="131">
   <si>
     <t>Read</t>
     <phoneticPr fontId="1"/>
@@ -378,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lemos (2009) - IRLA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>?book</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,10 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>youth, low education attainment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Aguirre Botero (2011)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Arrango &amp; Pachon (2004)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>female, low-skilled</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,13 +469,6 @@
   </si>
   <si>
     <t>Maloney &amp; Nunez (2003)</t>
-  </si>
-  <si>
-    <t>Maloney &amp; Nunez (2003)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LA countries</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -533,11 +488,167 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Focus on domestic workers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>introduction of MW to domestic service industry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60 percent (politically motivated?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at firm-level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40 percent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Formalization of domestic service industry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not very convincing…, No table for employment effects</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gindling &amp; Terrell (2005) The effect of minimum wages on actual wages in formal and informal sectors in Costa Rica, World Development</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Definition of informal sector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firm size, rural/urban dichotomy, self-employment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Key quotes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A reduction in uncovered wages implies wage gap between covered and uncovered sectors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>social security coverage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approx 35% over ten years</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Focus only on wage effects, informal wage increases more than formal wage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approx 200% over 2 years</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Khamis (2013) Does the MW have a higher impact on the informal than on the formal labour market. Applied Economics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maloney &amp; Mendez (2004) Measuring the impact of MW. In Law and Employment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MW change is calculated by myself from https://countryeconomy.com/national-minimum-wage/colombia comparing between 1997 VS 1999 MW (236460-172005)/172005 * 100 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16-18% per year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increase less than formal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>increase more than formal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WTH is Table 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lemos (2009) Comparing employment estimates... IRAE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main focus is to compare different MW variables. It also claims Brazil coverage rate is 100%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>approx 20%/year (real), 28%/year (nominal)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non-salaried work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Formality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Net Effect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boasch &amp; Manacorda (2010) MW and earnings inequality in Urban Mexico</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>El Hamidi &amp; Terrell (2002)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time-series evidence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUR technique to take into account of interdependencies between formal, informal, unemployment. Why include hours worked, wages as controls?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>decentralization (variance increase), 16-20% increase per year(real)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>General equlibrium model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not affect small firms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arango &amp; Pachon (2004)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>women, young, less educated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Castillo-Freeman &amp; Freeman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alatas &amp; Cameron (2003)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,7 +697,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +708,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,15 +752,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -639,14 +765,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <border outline="0">
         <top style="medium">
@@ -689,6 +830,18 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -703,30 +856,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C21EA458-5AEA-4F9A-9633-47B5F3517220}" name="テーブル1" displayName="テーブル1" ref="A1:K42" totalsRowShown="0">
-  <autoFilter ref="A1:K42" xr:uid="{4377AF35-00D6-40CB-A05A-B3BC936172BD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
-    <sortCondition ref="A1:A42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C21EA458-5AEA-4F9A-9633-47B5F3517220}" name="テーブル1" displayName="テーブル1" ref="A1:M47" totalsRowShown="0">
+  <autoFilter ref="A1:M47" xr:uid="{4377AF35-00D6-40CB-A05A-B3BC936172BD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
+    <sortCondition ref="E1:E47"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DCA40F34-62EE-40CE-9BE5-A3C201694E7A}" name="Paper"/>
-    <tableColumn id="2" xr3:uid="{01132E6D-23AF-406A-AD45-F944D9DF2C23}" name="Read"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DCA40F34-62EE-40CE-9BE5-A3C201694E7A}" name="Paper" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{E1152201-842C-4DD8-B141-6F94F9994C35}" name="Country"/>
-    <tableColumn id="4" xr3:uid="{9B995919-DCB1-487E-AD31-52F652BF55AD}" name="MW increase"/>
-    <tableColumn id="5" xr3:uid="{EDF1A178-B936-41AB-AF33-120BFE0E464C}" name="Employment elasticity"/>
+    <tableColumn id="4" xr3:uid="{9B995919-DCB1-487E-AD31-52F652BF55AD}" name="MW increase" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EDF1A178-B936-41AB-AF33-120BFE0E464C}" name="Formality"/>
+    <tableColumn id="2" xr3:uid="{972BD6DC-BAAE-4A5F-9F5E-6DB1E3213CD0}" name="Informality"/>
+    <tableColumn id="7" xr3:uid="{3471E6B3-0E99-422D-A396-BC5F4885C2BA}" name="Net Effect"/>
     <tableColumn id="6" xr3:uid="{C7CD62B5-2BFC-485C-86E5-8B7515E3AEDD}" name="Vulnerable group"/>
-    <tableColumn id="7" xr3:uid="{9D9E1E0B-66BE-4CA7-AF39-D4476BDBE841}" name="Informality"/>
+    <tableColumn id="11" xr3:uid="{1F8AF065-5917-4403-9BB3-80059B7409E6}" name="Definition of informal sector" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{ED676118-3915-4A52-8A40-1017CA2EA021}" name="hours"/>
     <tableColumn id="10" xr3:uid="{10E02178-8503-4D70-80A4-36BA76CEB904}" name="Informal sector wage" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{9D133694-63FD-4B4A-905A-B862768765A9}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{9D133694-63FD-4B4A-905A-B862768765A9}" name="Notes" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{D50B8BB9-5586-4CF8-B83F-02A52130A1CD}" name="Published"/>
+    <tableColumn id="13" xr3:uid="{70334221-D680-41B0-B097-8B001900CF9B}" name="Key quotes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A98C3927-EB39-4653-8D56-691234E79357}" name="テーブル2" displayName="テーブル2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A98C3927-EB39-4653-8D56-691234E79357}" name="テーブル2" displayName="テーブル2" ref="A1:J2" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:J2" xr:uid="{039C5234-A1AF-4BE3-9222-452AC58412C3}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E920E5AA-71C4-4BF4-8906-DE12BFAF2436}" name="Paper"/>
@@ -1041,742 +1196,943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12536E56-49D5-4313-BC0E-C972B2632C4C}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
   <cols>
-    <col min="1" max="1" width="26.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.47265625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="10" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.94921875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.47265625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.94921875" customWidth="1"/>
+    <col min="13" max="13" width="26.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="35.4">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>-0.4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="141.6">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="88.5">
+      <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="53.1">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="70.8">
+      <c r="A17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19" spans="1:12" ht="53.1">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="23" spans="1:12" ht="70.8">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <f>(2300-1100)/1100 * 100</f>
+        <v>109.09090909090908</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="52.5" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="53.1">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20">
-        <v>-0.4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
         <v>16</v>
-      </c>
-      <c r="K24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="35.4">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="J32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="L33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="88.5">
+      <c r="A35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="88.5">
+      <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="141.6">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>-0.12</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1809,48 +2165,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>